--- a/templates/QARSF/SYDATA.xlsx
+++ b/templates/QARSF/SYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Automation_1Updated\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B6F07-2AD5-4D1E-81A4-8739ADD6C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0B875-9997-4615-AA43-720687457DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,30 @@
     <sheet name="ReversePick" sheetId="9" r:id="rId8"/>
     <sheet name="PickPack" sheetId="10" r:id="rId9"/>
     <sheet name="ReversePickPack" sheetId="12" r:id="rId10"/>
-    <sheet name="PickPackShip" sheetId="13" r:id="rId11"/>
-    <sheet name="Pack" sheetId="14" r:id="rId12"/>
-    <sheet name="ReversePack" sheetId="15" r:id="rId13"/>
-    <sheet name="Ship" sheetId="16" r:id="rId14"/>
-    <sheet name="ReverseShip" sheetId="17" r:id="rId15"/>
-    <sheet name="CreateInvoice" sheetId="18" r:id="rId16"/>
-    <sheet name="InvoiceShipper" sheetId="19" r:id="rId17"/>
-    <sheet name="SalesInvPayment" sheetId="20" r:id="rId18"/>
-    <sheet name="SalesInvPaymentReversal" sheetId="21" r:id="rId19"/>
-    <sheet name="ApproveInvoice" sheetId="22" r:id="rId20"/>
-    <sheet name="TransferInvoice" sheetId="23" r:id="rId21"/>
-    <sheet name="ApproveInvoiceBatch" sheetId="24" r:id="rId22"/>
-    <sheet name="Picklist" sheetId="26" r:id="rId23"/>
-    <sheet name="PackingSlip" sheetId="27" r:id="rId24"/>
+    <sheet name="ReversePickPackShip" sheetId="28" r:id="rId11"/>
+    <sheet name="ReversePackShip" sheetId="33" r:id="rId12"/>
+    <sheet name="SalesOrderPaymentAuth" sheetId="36" r:id="rId13"/>
+    <sheet name="SalesOrderPaymentAuthCancelled" sheetId="37" r:id="rId14"/>
+    <sheet name="SalesOrderPayment" sheetId="34" r:id="rId15"/>
+    <sheet name="SalesOrderPaymentReversal" sheetId="35" r:id="rId16"/>
+    <sheet name="PickPackShip" sheetId="13" r:id="rId17"/>
+    <sheet name="Pack" sheetId="14" r:id="rId18"/>
+    <sheet name="ReversePack" sheetId="15" r:id="rId19"/>
+    <sheet name="Ship" sheetId="16" r:id="rId20"/>
+    <sheet name="ReverseShip" sheetId="17" r:id="rId21"/>
+    <sheet name="CreateInvoice" sheetId="18" r:id="rId22"/>
+    <sheet name="InvoiceShipper" sheetId="19" r:id="rId23"/>
+    <sheet name="SalesInvPayment" sheetId="20" r:id="rId24"/>
+    <sheet name="SalesInvPaymentReversal" sheetId="21" r:id="rId25"/>
+    <sheet name="ApproveInvoice" sheetId="22" r:id="rId26"/>
+    <sheet name="TransferInvoice" sheetId="23" r:id="rId27"/>
+    <sheet name="ApproveInvoiceBatch" sheetId="24" r:id="rId28"/>
+    <sheet name="Picklist" sheetId="26" r:id="rId29"/>
+    <sheet name="PackingSlip" sheetId="27" r:id="rId30"/>
+    <sheet name="DeapproveInvoiceBatch" sheetId="29" r:id="rId31"/>
+    <sheet name="ReopenInvoiceBatch" sheetId="30" r:id="rId32"/>
+    <sheet name="CloseInvoiceBatch" sheetId="31" r:id="rId33"/>
+    <sheet name="TransferInvoiceBatch" sheetId="32" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>API Mode</t>
   </si>
@@ -225,6 +235,39 @@
   </si>
   <si>
     <t>PAYPAL</t>
+  </si>
+  <si>
+    <t>Sales Order Pick-Pack-Ship Reversal</t>
+  </si>
+  <si>
+    <t>Deapprove Sales Invoice Batch</t>
+  </si>
+  <si>
+    <t>Reopen Sales Invoice Batch</t>
+  </si>
+  <si>
+    <t>Close Sales Invoice Batch</t>
+  </si>
+  <si>
+    <t>Transfer Sales Invoice Batch</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Sales Order Pack-Ship Reversal</t>
+  </si>
+  <si>
+    <t>Sales Order Payment</t>
+  </si>
+  <si>
+    <t>Sales Order Payment Reversal</t>
+  </si>
+  <si>
+    <t>Sales Order Payment Authorization</t>
+  </si>
+  <si>
+    <t>Sales Order Payment Cancel Authorization</t>
   </si>
 </sst>
 </file>
@@ -285,12 +328,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -643,7 +688,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +724,277 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181E8131-9527-40DC-8D03-4B9B215C5399}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AC59E2-BD4F-4660-AF21-A0770B62C408}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CE7806-FD32-43F3-BC4E-77018EC89A45}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9CE79F-450B-4AEA-BA7D-7AF500482579}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACBF40B-429C-42DA-A4C4-18BDC824BBDD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7453574C-6E54-4B61-9D6C-AA9DF4FFF56B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -718,7 +1034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A195A0B-2F1C-42E7-9251-311C95089155}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -758,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1622B3-40C5-4D8B-96DC-6BDE9D027FEA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -788,266 +1104,6 @@
       </c>
       <c r="C2" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E80EDE3-D12D-4C61-8497-9FDAF14EEDCF}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65428834-7D24-4E90-BB7E-B972506A33F1}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9959975-5A1E-4505-BB0C-580D3FB3CD34}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5CD637-D059-4F4F-B025-410A98CC8AB1}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB31D024-2CC7-45D0-B60C-8C4F570EEF66}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1116,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1349,266 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E80EDE3-D12D-4C61-8497-9FDAF14EEDCF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65428834-7D24-4E90-BB7E-B972506A33F1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9959975-5A1E-4505-BB0C-580D3FB3CD34}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5CD637-D059-4F4F-B025-410A98CC8AB1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB31D024-2CC7-45D0-B60C-8C4F570EEF66}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0A09AE-A075-4001-8E42-62928855C31B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1330,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1AE395-D227-4237-B30F-4F930B835716}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1367,12 +1683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C02362-B38D-4703-8703-8411DD765CC8}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,27 +1696,21 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C1F3E-1893-487E-81FC-3D1397F0FBF8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1452,7 +1762,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0AA7F-8A02-4F74-AD69-BE20ED32EE5E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1489,19 +1836,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D32AA7-7750-4049-94E1-18868E65F65D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB4D42-8B49-48EF-AB9C-C00B986E7296}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A95B062-8699-4F93-ADB7-D49C100666D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD457D6-2B63-4C33-BA80-81C8E2B4A078}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1510,19 +1952,23 @@
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1565,7 +2011,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>

--- a/templates/QARSF/SYDATA.xlsx
+++ b/templates/QARSF/SYDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0B875-9997-4615-AA43-720687457DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477D825-7DA0-48C2-96CF-71F52280457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <sheet name="ReopenInvoiceBatch" sheetId="30" r:id="rId32"/>
     <sheet name="CloseInvoiceBatch" sheetId="31" r:id="rId33"/>
     <sheet name="TransferInvoiceBatch" sheetId="32" r:id="rId34"/>
+    <sheet name="PrepaymentReleaseRecall" sheetId="39" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
   <si>
     <t>API Mode</t>
   </si>
@@ -268,6 +269,45 @@
   </si>
   <si>
     <t>Sales Order Payment Cancel Authorization</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ApplicationAvailability</t>
+  </si>
+  <si>
+    <t>ApplicationMethod</t>
+  </si>
+  <si>
+    <t>Cust-Dollar WF1 (8)</t>
+  </si>
+  <si>
+    <t>Maximum Amount</t>
+  </si>
+  <si>
+    <t>Prepayment Release</t>
+  </si>
+  <si>
+    <t>Prepayment Recall</t>
+  </si>
+  <si>
+    <t>Transaction Type Recall</t>
+  </si>
+  <si>
+    <t>Background Processing Recall</t>
+  </si>
+  <si>
+    <t>Transaction Type CloseOut</t>
+  </si>
+  <si>
+    <t>Background Processing CloseOut</t>
+  </si>
+  <si>
+    <t>Prepayment Close Out</t>
   </si>
 </sst>
 </file>
@@ -617,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1881,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1980,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,6 +2008,97 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F24E3-35CE-4D20-B93D-E042852331C2}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" xr:uid="{5CFEA579-4305-4DF5-9B14-3A7B7B35261C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/templates/QARSF/SYDATA.xlsx
+++ b/templates/QARSF/SYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477D825-7DA0-48C2-96CF-71F52280457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037D6C3-B221-4319-9698-A32A4B360725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23580" yWindow="2145" windowWidth="18330" windowHeight="11385" tabRatio="761" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="ApproveInvoice" sheetId="22" r:id="rId26"/>
     <sheet name="TransferInvoice" sheetId="23" r:id="rId27"/>
     <sheet name="ApproveInvoiceBatch" sheetId="24" r:id="rId28"/>
-    <sheet name="Picklist" sheetId="26" r:id="rId29"/>
+    <sheet name="Picklist" sheetId="40" r:id="rId29"/>
     <sheet name="PackingSlip" sheetId="27" r:id="rId30"/>
     <sheet name="DeapproveInvoiceBatch" sheetId="29" r:id="rId31"/>
     <sheet name="ReopenInvoiceBatch" sheetId="30" r:id="rId32"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
   <si>
     <t>API Mode</t>
   </si>
@@ -283,9 +283,6 @@
     <t>ApplicationMethod</t>
   </si>
   <si>
-    <t>Cust-Dollar WF1 (8)</t>
-  </si>
-  <si>
     <t>Maximum Amount</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>Prepayment Close Out</t>
+  </si>
+  <si>
+    <t>Cust-Dollar WF1</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
   </si>
 </sst>
 </file>
@@ -1759,17 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C1F3E-1893-487E-81FC-3D1397F0FBF8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D59C0C1-ED86-4519-95EA-B3B5BDB53E37}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1793,12 +1793,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2016,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F24E3-35CE-4D20-B93D-E042852331C2}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,16 +2044,16 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,31 +2061,31 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
